--- a/Project/Data/United Kingdom/Cleaned Dataset/Solar Shares on Electricity Generation in UK from 2011 to 2021.xlsx
+++ b/Project/Data/United Kingdom/Cleaned Dataset/Solar Shares on Electricity Generation in UK from 2011 to 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hewit\Desktop\COS30045\Assignment\Project\Data\United Kingdom\Cleaned Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB4ABAC-40C2-47FD-9853-F6109B29B94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0183CC92-F534-4503-B2EF-C096513DB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="1500" windowWidth="17280" windowHeight="9024" xr2:uid="{59A5A525-DBA9-4B7E-BDA4-51E2B4F37955}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A5A525-DBA9-4B7E-BDA4-51E2B4F37955}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Electricity Generation (GWh) from Solar Photovoltaics</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Electricity Generation (MWh) from Solar Photovoltaics</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,10 +416,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
